--- a/Beta Project - Velocity/Base-Lab/Testing/bucket_Tests/Original EIB/STAT REV Upload October.xlsx
+++ b/Beta Project - Velocity/Base-Lab/Testing/bucket_Tests/Original EIB/STAT REV Upload October.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastienstvil/Documents/Python/Python-DEV/Beta Project - Velocity/Base-Lab/Testing/bucket_Tests/Original EIB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D36917A4-5BE3-984A-9592-EB0CE7E20223}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DE56BF-C90A-B748-9D15-BD8AC46F5C29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20380" yWindow="5400" windowWidth="28040" windowHeight="17440" activeTab="1"/>
+    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="26660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Import Accounting Journal" sheetId="1" r:id="rId1"/>
@@ -23,20 +23,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors/>
-  <commentList/>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors/>
-  <commentList/>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="131">
   <si>
@@ -436,11 +422,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -596,11 +582,6 @@
       <sz val="8"/>
       <color indexed="23"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="38">
@@ -984,7 +965,7 @@
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1030,19 +1011,19 @@
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="21" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="18" fillId="37" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1445,11 +1426,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1466,273 +1447,273 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
     </row>
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="8" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="9"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="14"/>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="11" t="s">
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" s="11" t="s">
+      <c r="M3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="V3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="W3" s="11" t="s">
+      <c r="P3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="W3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="U4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="V4" s="11" t="s">
+      <c r="V4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="W4" s="11" t="s">
+      <c r="W4" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="T5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="U5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="V5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="W5" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1758,7 +1739,7 @@
       <c r="M6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="5">
         <v>43404</v>
       </c>
       <c r="O6" s="1" t="s">
@@ -1770,7 +1751,7 @@
       <c r="T6" t="s">
         <v>43</v>
       </c>
-      <c r="U6" s="12"/>
+      <c r="U6" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1779,42 +1760,41 @@
     <mergeCell ref="F2:W2"/>
   </mergeCells>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:H32000 R6:T32000 C6:D32000">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:H32000 R6:T32000 C6:D32000" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"WID,Accounting_Journal_ID"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Company_Reference_ID,WID,Organization_Reference_ID"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Currency_Numeric_Code,WID,Currency_ID"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"WID,Ledger_Type_ID"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M4" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"WID,Book_Code_ID"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"WID,Journal_Source_ID"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W4" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"WID,Currency_Rate_Type_ID"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AT11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="J6" sqref="J6:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1836,526 +1816,526 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
     </row>
     <row r="2" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="8" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="10"/>
-      <c r="AM2" s="10"/>
-      <c r="AN2" s="10"/>
-      <c r="AO2" s="10"/>
-      <c r="AP2" s="10"/>
-      <c r="AQ2" s="10"/>
-      <c r="AR2" s="10"/>
-      <c r="AS2" s="10"/>
-      <c r="AT2" s="9"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="13"/>
+      <c r="AN2" s="13"/>
+      <c r="AO2" s="13"/>
+      <c r="AP2" s="13"/>
+      <c r="AQ2" s="13"/>
+      <c r="AR2" s="13"/>
+      <c r="AS2" s="13"/>
+      <c r="AT2" s="14"/>
     </row>
     <row r="3" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="11" t="s">
+      <c r="H3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="V3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="W3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ3" s="11" t="s">
+      <c r="J3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AK3" s="11" t="s">
+      <c r="AK3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AL3" s="11" t="s">
+      <c r="AL3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AM3" s="11" t="s">
+      <c r="AM3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AN3" s="11" t="s">
+      <c r="AN3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AO3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="AP3" s="11" t="s">
+      <c r="AO3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AQ3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="AR3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="AS3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="AT3" s="11" t="s">
+      <c r="AQ3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="U4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="V4" s="11" t="s">
+      <c r="V4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="W4" s="11" t="s">
+      <c r="W4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="X4" s="11" t="s">
+      <c r="X4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="Y4" s="11" t="s">
+      <c r="Y4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="Z4" s="11" t="s">
+      <c r="Z4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AA4" s="11" t="s">
+      <c r="AA4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AB4" s="11" t="s">
+      <c r="AB4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AC4" s="11" t="s">
+      <c r="AC4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AD4" s="11" t="s">
+      <c r="AD4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AE4" s="11" t="s">
+      <c r="AE4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AF4" s="11" t="s">
+      <c r="AF4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AG4" s="11" t="s">
+      <c r="AG4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AH4" s="11" t="s">
+      <c r="AH4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AI4" s="11" t="s">
+      <c r="AI4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AJ4" s="11" t="s">
+      <c r="AJ4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AK4" s="11" t="s">
+      <c r="AK4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AL4" s="11" t="s">
+      <c r="AL4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AM4" s="11" t="s">
+      <c r="AM4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AN4" s="11" t="s">
+      <c r="AN4" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AO4" s="11" t="s">
+      <c r="AO4" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AP4" s="11" t="s">
+      <c r="AP4" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AQ4" s="11" t="s">
+      <c r="AQ4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AR4" s="11" t="s">
+      <c r="AR4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AS4" s="11" t="s">
+      <c r="AS4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AT4" s="11" t="s">
+      <c r="AT4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="T5" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="U5" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="V5" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="W5" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="X5" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="Y5" s="4" t="s">
+      <c r="Y5" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="Z5" s="4" t="s">
+      <c r="Z5" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AA5" s="4" t="s">
+      <c r="AA5" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AB5" s="4" t="s">
+      <c r="AB5" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="AC5" s="4" t="s">
+      <c r="AC5" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="AD5" s="4" t="s">
+      <c r="AD5" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AE5" s="4" t="s">
+      <c r="AE5" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AF5" s="4" t="s">
+      <c r="AF5" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AG5" s="4" t="s">
+      <c r="AG5" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AH5" s="4" t="s">
+      <c r="AH5" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="AI5" s="4" t="s">
+      <c r="AI5" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AJ5" s="4" t="s">
+      <c r="AJ5" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AK5" s="4" t="s">
+      <c r="AK5" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AL5" s="4" t="s">
+      <c r="AL5" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AM5" s="4" t="s">
+      <c r="AM5" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AN5" s="4" t="s">
+      <c r="AN5" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="AO5" s="4" t="s">
+      <c r="AO5" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="AP5" s="4" t="s">
+      <c r="AP5" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AQ5" s="4" t="s">
+      <c r="AQ5" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AR5" s="4" t="s">
+      <c r="AR5" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AS5" s="4" t="s">
+      <c r="AS5" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AT5" s="4" t="s">
+      <c r="AT5" s="3" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2375,16 +2355,16 @@
       <c r="G6" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="14">
+      <c r="J6" s="6"/>
+      <c r="K6" s="7">
         <f>'[1]Bucket Report ex-WRPP'!$L$225</f>
         <v>1673511.19</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
       <c r="P6" s="1" t="s">
         <v>121</v>
       </c>
@@ -2414,16 +2394,16 @@
       <c r="G7" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="14">
+      <c r="J7" s="6"/>
+      <c r="K7" s="7">
         <f>'[1]Bucket Report ex-WRPP'!$L$226</f>
         <v>7963822.8300000001</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
       <c r="P7" s="1" t="s">
         <v>121</v>
       </c>
@@ -2453,16 +2433,16 @@
       <c r="G8" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="14">
+      <c r="J8" s="6"/>
+      <c r="K8" s="7">
         <f>'[1]Bucket Report ex-WRPP'!$L$227</f>
         <v>2392474.62</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
       <c r="P8" s="1" t="s">
         <v>121</v>
       </c>
@@ -2492,16 +2472,16 @@
       <c r="G9" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="14">
+      <c r="J9" s="6"/>
+      <c r="K9" s="7">
         <f>'[1]Bucket Report ex-WRPP'!$L$228</f>
         <v>11663299.32</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
       <c r="P9" s="1" t="s">
         <v>121</v>
       </c>
@@ -2531,16 +2511,16 @@
       <c r="G10" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="14">
+      <c r="J10" s="6"/>
+      <c r="K10" s="7">
         <f>'[1]Bucket Report ex-WRPP'!$L$229</f>
         <v>3981641.27</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
       <c r="P10" s="1" t="s">
         <v>121</v>
       </c>
@@ -2570,16 +2550,16 @@
       <c r="G11" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="6">
         <f>SUM(K6:K10)</f>
         <v>27674749.23</v>
       </c>
-      <c r="K11" s="13"/>
+      <c r="K11" s="6"/>
       <c r="L11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
       <c r="P11" s="1" t="s">
         <v>130</v>
       </c>
@@ -2594,89 +2574,88 @@
     <mergeCell ref="AJ2:AT2"/>
   </mergeCells>
   <dataValidations count="27">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Company_Reference_ID,WID,Organization_Reference_ID"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 H4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 H4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"WID,Ledger_Account_ID"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 I4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 I4" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"WID,Account_Set_ID"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>"Currency_Numeric_Code,WID,Currency_ID"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>"WID,Cost_Center_Reference_ID"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T4" xr:uid="{00000000-0002-0000-0100-000005000000}">
       <formula1>"WID,Bank_Account_ID"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U4" xr:uid="{00000000-0002-0000-0100-000006000000}">
       <formula1>"WID,Custom_Worktag_06_ID"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V4" xr:uid="{00000000-0002-0000-0100-000007000000}">
       <formula1>"Location_ID,WID"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W4" xr:uid="{00000000-0002-0000-0100-000008000000}">
       <formula1>"WID,Revenue_Category_ID"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X4" xr:uid="{00000000-0002-0000-0100-000009000000}">
       <formula1>"WID,Custom_Worktag_4_ID"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y4" xr:uid="{00000000-0002-0000-0100-00000A000000}">
       <formula1>"WID,Spend_Category_ID"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z4" xr:uid="{00000000-0002-0000-0100-00000B000000}">
       <formula1>"WID,Custom_Worktag_5_ID"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA4" xr:uid="{00000000-0002-0000-0100-00000C000000}">
       <formula1>"WID,Purchase_Item_ID"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB4" xr:uid="{00000000-0002-0000-0100-00000D000000}">
       <formula1>"WID,Project_Plan_ID"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC4" xr:uid="{00000000-0002-0000-0100-00000E000000}">
       <formula1>"WID,Project_ID"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD4" xr:uid="{00000000-0002-0000-0100-00000F000000}">
       <formula1>"WID,Employee_ID"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE4" xr:uid="{00000000-0002-0000-0100-000010000000}">
       <formula1>"Company_Reference_ID,WID"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF4" xr:uid="{00000000-0002-0000-0100-000011000000}">
       <formula1>"WID,Petty_Cash_Account_ID"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG4" xr:uid="{00000000-0002-0000-0100-000012000000}">
       <formula1>"Supplier_ID,WID"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH4" xr:uid="{00000000-0002-0000-0100-000013000000}">
       <formula1>"Custom_Worktag_2_ID,WID"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI32000">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI32000" xr:uid="{00000000-0002-0000-0100-000014000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK4" xr:uid="{00000000-0002-0000-0100-000015000000}">
       <formula1>"WID,Tax_Type_ID"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM4" xr:uid="{00000000-0002-0000-0100-000016000000}">
       <formula1>"WID,Tax_Code_ID,Withholding_Tax_Code_ID"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN4" xr:uid="{00000000-0002-0000-0100-000017000000}">
       <formula1>"WID,Withholding_Tax_Rate_ID,Tax_Rate_ID"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO4" xr:uid="{00000000-0002-0000-0100-000018000000}">
       <formula1>"WID,Tax_Applicability_ID"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP4" xr:uid="{00000000-0002-0000-0100-000019000000}">
       <formula1>"WID,Tax_Recoverability_ID"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ4" xr:uid="{00000000-0002-0000-0100-00001A000000}">
       <formula1>"WID,Supplier_ID,Supplier_Reference_ID"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>